--- a/ensemble_algorithm/ensemble_digits_metrics.xlsx
+++ b/ensemble_algorithm/ensemble_digits_metrics.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7194444444444444</v>
+        <v>0.6555555555555556</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6353790613718412</v>
+        <v>0.7089201877934272</v>
       </c>
     </row>
   </sheetData>

--- a/ensemble_algorithm/ensemble_digits_metrics.xlsx
+++ b/ensemble_algorithm/ensemble_digits_metrics.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.6972</t>
+          <t>0.6778</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.6895</t>
+          <t>0.6548</t>
         </is>
       </c>
     </row>
